--- a/biology/Zoologie/Eurylaime_de_Gould/Eurylaime_de_Gould.xlsx
+++ b/biology/Zoologie/Eurylaime_de_Gould/Eurylaime_de_Gould.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serilophus lunatus
 L'Eurylaime de Gould (Serilophus lunatus), également appelé eurylaime argenté, est une espèce de passereaux de la famille des Eurylaimidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eurylaime de Gould vit en Asie du Sud-Est ; on le retrouve notamment en Inde et en Chine.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 16-17 cm et pèse 25-35 g.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eurylaime de Gould est une espèce que l'on rencontre dans les forêts tropicales et semi-tropicales des plaines jusqu'à une altitude d'environ 2000 m.
 En Chine, il vit entre 300 et 700 m d'altitude ; en Thaïlande, il vit entre 800 et 1800 m d'altitude ; et à Sumatra il vit de 800 à 2000 m d'altitude.
@@ -607,7 +625,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eurylaime de Gould est insectivore.
 Il mange surtout des sauterelles, de mantes religieuses et d'autres insectes. 
@@ -641,7 +661,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison des amours se déroule généralement de mars à août.
 Il construit un nid en forme de balle qu'il suspend à l'extrémité des branches extérieures d'un petit arbre, à l'extrémité des frondes d'un palmier et sur un bambou à une hauteur qui avoisine 3,5 mètres. Il y pond de 2 à 5 œufs.
@@ -673,7 +695,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Serilophus lunatus aphobus  Deignan, 1948
 Serilophus lunatus elisabethae  La Touche, 1921 (syn. Serilophus lunatus atrestus  Deignan, 1948)
